--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -316,12 +316,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -334,16 +340,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -360,13 +366,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -386,6 +392,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -585,17 +592,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -623,10 +630,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -874,12 +881,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1166,7 +1173,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1194,10 +1201,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1457,7 +1464,8 @@
     <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="255" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1474,7 +1482,9 @@
       <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" s="2">
@@ -1489,7 +1499,9 @@
       <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" s="2">
@@ -1504,7 +1516,9 @@
       <c r="D3" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" s="2">
@@ -1519,7 +1533,9 @@
       <c r="D4" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" s="2">
@@ -1534,7 +1550,9 @@
       <c r="D5" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" s="2">
@@ -1549,7 +1567,9 @@
       <c r="D6" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" s="2">
@@ -1562,7 +1582,9 @@
         <v>13</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" s="2">
@@ -1577,7 +1599,9 @@
       <c r="D8" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" s="2">
@@ -1592,7 +1616,9 @@
       <c r="D9" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" s="2">
@@ -1607,7 +1633,9 @@
       <c r="D10" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" s="2">
@@ -1622,7 +1650,9 @@
       <c r="D11" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" s="2">
@@ -1637,7 +1667,9 @@
       <c r="D12" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" s="2">
@@ -1652,7 +1684,9 @@
       <c r="D13" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" s="2">
@@ -1667,7 +1701,9 @@
       <c r="D14" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" s="2">
@@ -1682,7 +1718,9 @@
       <c r="D15" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" s="2">
@@ -1697,7 +1735,9 @@
       <c r="D16" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" s="2">
@@ -1712,7 +1752,9 @@
       <c r="D17" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" s="2">
@@ -1727,7 +1769,9 @@
       <c r="D18" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" s="2">
@@ -1742,7 +1786,9 @@
       <c r="D19" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" s="2">
@@ -1757,7 +1803,9 @@
       <c r="D20" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" ht="15.35" customHeight="1">
       <c r="A21" s="2">
@@ -1772,7 +1820,9 @@
       <c r="D21" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" s="2">
@@ -1787,7 +1837,9 @@
       <c r="D22" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" s="2">
@@ -1802,7 +1854,9 @@
       <c r="D23" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" s="2">
@@ -1817,7 +1871,9 @@
       <c r="D24" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" s="2">
@@ -1832,7 +1888,9 @@
       <c r="D25" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" s="2">
@@ -1847,7 +1905,9 @@
       <c r="D26" t="s" s="3">
         <v>47</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" s="2">
@@ -1862,7 +1922,9 @@
       <c r="D27" t="s" s="3">
         <v>49</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" s="2">
@@ -1877,7 +1939,9 @@
       <c r="D28" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" s="2">
@@ -1892,7 +1956,9 @@
       <c r="D29" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" s="2">
@@ -1907,7 +1973,9 @@
       <c r="D30" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" s="2">
@@ -1922,7 +1990,9 @@
       <c r="D31" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" s="2">
@@ -1937,7 +2007,9 @@
       <c r="D32" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" s="2">
@@ -1952,7 +2024,9 @@
       <c r="D33" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" s="2">
@@ -1967,7 +2041,9 @@
       <c r="D34" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" s="2">
@@ -1982,7 +2058,9 @@
       <c r="D35" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" s="2">
@@ -1997,7 +2075,9 @@
       <c r="D36" t="s" s="3">
         <v>67</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" s="2">
@@ -2012,7 +2092,9 @@
       <c r="D37" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" s="2">
@@ -2027,7 +2109,9 @@
       <c r="D38" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" ht="15.35" customHeight="1">
       <c r="A39" s="2">
@@ -2042,7 +2126,9 @@
       <c r="D39" t="s" s="3">
         <v>74</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" ht="15.35" customHeight="1">
       <c r="A40" s="2">
@@ -2057,7 +2143,9 @@
       <c r="D40" t="s" s="3">
         <v>76</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" ht="15.35" customHeight="1">
       <c r="A41" s="2">
@@ -2072,7 +2160,9 @@
       <c r="D41" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" ht="15.35" customHeight="1">
       <c r="A42" s="2">
@@ -2087,7 +2177,9 @@
       <c r="D42" t="s" s="3">
         <v>81</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" ht="15.35" customHeight="1">
       <c r="A43" s="2">
@@ -2102,7 +2194,9 @@
       <c r="D43" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" ht="15.35" customHeight="1">
       <c r="A44" s="2">
@@ -2117,7 +2211,9 @@
       <c r="D44" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" ht="15.35" customHeight="1">
       <c r="A45" s="2">
@@ -2132,7 +2228,9 @@
       <c r="D45" t="s" s="3">
         <v>87</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" ht="15.35" customHeight="1">
       <c r="A46" s="2">
@@ -2147,7 +2245,9 @@
       <c r="D46" t="s" s="3">
         <v>89</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" ht="15.35" customHeight="1">
       <c r="A47" s="2">
@@ -2162,7 +2262,9 @@
       <c r="D47" t="s" s="3">
         <v>92</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -1483,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
@@ -1617,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15.35" customHeight="1">
@@ -1668,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="15.35" customHeight="1">
@@ -1719,7 +1719,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="15.35" customHeight="1">
@@ -1753,7 +1753,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="15.35" customHeight="1">
@@ -1804,7 +1804,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="15.35" customHeight="1">
@@ -1821,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="15.35" customHeight="1">
@@ -1957,7 +1957,7 @@
         <v>51</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="15.35" customHeight="1">
@@ -1974,7 +1974,7 @@
         <v>54</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="15.35" customHeight="1">
@@ -2025,7 +2025,7 @@
         <v>60</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="15.35" customHeight="1">
@@ -2042,7 +2042,7 @@
         <v>63</v>
       </c>
       <c r="E34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="15.35" customHeight="1">
@@ -2161,7 +2161,7 @@
         <v>79</v>
       </c>
       <c r="E41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="15.35" customHeight="1">
@@ -2178,7 +2178,7 @@
         <v>81</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="15.35" customHeight="1">
@@ -2246,7 +2246,7 @@
         <v>89</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="15.35" customHeight="1">

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gema/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20576408-F049-3440-8937-A22A249BE077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t>Ejes de Torsión</t>
   </si>
@@ -124,9 +133,6 @@
     <t>Kit de Balancines para armar sistema de doble eje.|Incluye:|4 Orejas 1 3/4 x 1 1/2|8 Platinas 1 1/2 x 1 1/4|2 Orejas de Balance|2 Triangulos de balance|14 Pernos 1/2 x 3 1/2|14 Tuercas 1/2|No incluye paquetes de Resorte.</t>
   </si>
   <si>
-    <t>Platas de Soporte</t>
-  </si>
-  <si>
     <t>patas</t>
   </si>
   <si>
@@ -290,28 +296,18 @@
   </si>
   <si>
     <t>a. Chasis</t>
+  </si>
+  <si>
+    <t>Patas de Soporte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -355,26 +351,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,24 +367,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -602,7 +647,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -621,7 +666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,7 +722,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +904,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,9 +917,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -891,7 +942,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -910,7 +961,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +987,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1013,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1039,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1065,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1091,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1117,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1143,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1169,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,9 +1208,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1173,7 +1230,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1192,7 +1249,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1279,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1305,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1331,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1357,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1383,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1409,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1435,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1461,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1487,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,142 +1500,151 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="255" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
+    <row r="1" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.35" customHeight="1">
+    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.35" customHeight="1">
+    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15.35" customHeight="1">
+    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.35" customHeight="1">
+    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15.35" customHeight="1">
+    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="3">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15.35" customHeight="1">
+    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4"/>
@@ -1586,681 +1652,681 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.35" customHeight="1">
+    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s" s="3">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s" s="3">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15.35" customHeight="1">
+    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.35" customHeight="1">
+    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s" s="3">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.35" customHeight="1">
+    <row r="11" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15.35" customHeight="1">
+    <row r="12" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="15.35" customHeight="1">
+    <row r="13" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.35" customHeight="1">
+    <row r="14" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.35" customHeight="1">
+    <row r="15" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15.35" customHeight="1">
+    <row r="16" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.35" customHeight="1">
+    <row r="17" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15.35" customHeight="1">
+    <row r="18" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.35" customHeight="1">
+    <row r="19" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15.35" customHeight="1">
+    <row r="20" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.35" customHeight="1">
+    <row r="21" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="D21" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D21" t="s" s="3">
-        <v>39</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="15.35" customHeight="1">
+    <row r="22" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="3">
-        <v>41</v>
-      </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.35" customHeight="1">
+    <row r="23" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>42</v>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.35" customHeight="1">
+    <row r="24" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s" s="3">
-        <v>44</v>
-      </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.35" customHeight="1">
+    <row r="25" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s" s="3">
-        <v>45</v>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.35" customHeight="1">
+    <row r="26" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="3">
-        <v>47</v>
-      </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.35" customHeight="1">
+    <row r="27" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>49</v>
-      </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.35" customHeight="1">
+    <row r="28" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s" s="3">
-        <v>50</v>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15.35" customHeight="1">
+    <row r="29" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s" s="3">
-        <v>51</v>
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.35" customHeight="1">
+    <row r="30" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C30" t="s" s="3">
+      <c r="D30" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D30" t="s" s="3">
-        <v>54</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="15.35" customHeight="1">
+    <row r="31" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D31" t="s" s="3">
-        <v>56</v>
-      </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.35" customHeight="1">
+    <row r="32" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C32" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s" s="3">
-        <v>58</v>
-      </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.35" customHeight="1">
+    <row r="33" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D33" t="s" s="3">
-        <v>60</v>
-      </c>
       <c r="E33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.35" customHeight="1">
+    <row r="34" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="D34" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>63</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="15.35" customHeight="1">
+    <row r="35" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C35" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s" s="3">
-        <v>65</v>
-      </c>
       <c r="E35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15.35" customHeight="1">
+    <row r="36" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C36" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D36" t="s" s="3">
-        <v>67</v>
-      </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.35" customHeight="1">
+    <row r="37" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" t="s" s="3">
+      <c r="B37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C37" t="s" s="3">
+      <c r="D37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D37" t="s" s="3">
-        <v>70</v>
-      </c>
       <c r="E37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.35" customHeight="1">
+    <row r="38" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D38" t="s" s="3">
-        <v>72</v>
-      </c>
       <c r="E38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.35" customHeight="1">
+    <row r="39" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C39" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D39" t="s" s="3">
-        <v>74</v>
-      </c>
       <c r="E39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.35" customHeight="1">
+    <row r="40" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C40" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="D40" t="s" s="3">
-        <v>76</v>
-      </c>
       <c r="E40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.35" customHeight="1">
+    <row r="41" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="D41" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D41" t="s" s="3">
-        <v>79</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="15.35" customHeight="1">
+    <row r="42" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" t="s" s="3">
+      <c r="B42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s" s="3">
-        <v>81</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="15.35" customHeight="1">
+    <row r="43" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" t="s" s="3">
+      <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s" s="3">
-        <v>83</v>
-      </c>
       <c r="E43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15.35" customHeight="1">
+    <row r="44" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C44" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="D44" t="s" s="3">
-        <v>85</v>
-      </c>
       <c r="E44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="15.35" customHeight="1">
+    <row r="45" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C45" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="D45" t="s" s="3">
-        <v>87</v>
-      </c>
       <c r="E45" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.35" customHeight="1">
+    <row r="46" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>46</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="B46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C46" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s" s="3">
-        <v>89</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="15.35" customHeight="1">
+    <row r="47" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" t="s" s="3">
+      <c r="B47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="D47" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D47" t="s" s="3">
-        <v>92</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -2268,7 +2334,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gema/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20576408-F049-3440-8937-A22A249BE077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>Ejes de Torsión</t>
   </si>
@@ -31,18 +22,21 @@
     <t>a. Eje de torsión|b. Abrazadera (Unión T)|c. Tubo para alargar eje de torsión</t>
   </si>
   <si>
-    <t>Eje de Torsión 4 Pernos</t>
-  </si>
-  <si>
-    <t>Capacidad: 750 Kg. (1650 Lb.)|Fácil Instalación|NO NECESITA|Paquetes de resorte|Platineras|Abrazaderas|Orejas|Uniones|Monturitas|BENEFICIOS:|Amortiguación suave|Mayor estabilidad a mayor velocidad|No salta la carga|Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
-  </si>
-  <si>
-    <t>Eje de Torsión 5 Pernos</t>
+    <t>Eje de Torsión 4 Pernos 750 Kg.</t>
+  </si>
+  <si>
+    <t>Marca: AL-KO|Capacidad: 750 Kg. (1650 Lb.)|Fácil Instalación|&lt;br /&gt;|&lt;strong&gt;NO NECESITA&lt;/strong&gt;|• Paquetes de resorte|• Platineras|• Abrazaderas|• Orejas|• Uniones|• Monturitas|&lt;br /&gt;|&lt;strong&gt;BENEFICIOS:&lt;/strong&gt;|✓Amortiguación suave|✓Mayor estabilidad a mayor velocidad|✓No salta la carga|✓Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
+  </si>
+  <si>
+    <t>Eje de Torsión 5 Pernos 1000 Kg.</t>
   </si>
   <si>
     <t>Capacidad: 1000 Kg. (2200 lb)|Fácil Instalación|NO NECESITA|Paquetes de resorte|Platineras|Abrazaderas|Orejas|Uniones|Monturitas|BENEFICIOS:|Amortiguación suave|Mayor estabilidad a mayor velocidad|No salta la carga|Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
   </si>
   <si>
+    <t>Eje de Torsión 5 Pernos 1300 Kg.</t>
+  </si>
+  <si>
     <t>Capacidad: 1300 Kg. (2860 lb)|Fácil Instalación|NO NECESITA|Paquetes de resorte|Platineras|Abrazaderas|Orejas|Uniones|Monturitas|BENEFICIOS:|Amortiguación suave|Mayor estabilidad a mayor velocidad|No salta la carga|Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
   </si>
   <si>
@@ -133,6 +127,9 @@
     <t>Kit de Balancines para armar sistema de doble eje.|Incluye:|4 Orejas 1 3/4 x 1 1/2|8 Platinas 1 1/2 x 1 1/4|2 Orejas de Balance|2 Triangulos de balance|14 Pernos 1/2 x 3 1/2|14 Tuercas 1/2|No incluye paquetes de Resorte.</t>
   </si>
   <si>
+    <t>Patas de Soporte</t>
+  </si>
+  <si>
     <t>patas</t>
   </si>
   <si>
@@ -296,18 +293,28 @@
   </si>
   <si>
     <t>a. Chasis</t>
-  </si>
-  <si>
-    <t>Patas de Soporte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -351,14 +358,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,85 +386,24 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -647,7 +605,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -666,7 +624,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -696,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -722,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -748,7 +706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -774,7 +732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -800,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -878,7 +836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +862,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,15 +875,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -942,7 +894,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -961,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1013,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1039,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1117,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1143,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1169,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1195,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,15 +1160,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1230,7 +1176,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1249,7 +1195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1277,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1357,7 +1303,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1500,833 +1446,824 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="255" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.25" customHeight="1">
       <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
       <c r="E1" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.25" customHeight="1">
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="15.25" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s" s="3">
         <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.25" customHeight="1">
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
+      <c r="D4" t="s" s="3">
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.25" customHeight="1">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
+      <c r="D5" t="s" s="3">
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.25" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
+      <c r="D6" t="s" s="3">
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.25" customHeight="1">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" t="s" s="3">
         <v>13</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>14</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="15.25" customHeight="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
+      <c r="D8" t="s" s="3">
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.25" customHeight="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" t="s" s="3">
         <v>17</v>
       </c>
+      <c r="C9" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>18</v>
+      </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.25" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" t="s" s="3">
         <v>19</v>
       </c>
+      <c r="C10" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>20</v>
+      </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.25" customHeight="1">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" t="s" s="3">
         <v>21</v>
       </c>
+      <c r="C11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>22</v>
+      </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="15.25" customHeight="1">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" t="s" s="3">
         <v>24</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>25</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="15.25" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" t="s" s="3">
         <v>26</v>
       </c>
+      <c r="C13" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>27</v>
+      </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="15.25" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" t="s" s="3">
         <v>28</v>
       </c>
+      <c r="C14" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>29</v>
+      </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="15.25" customHeight="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
+      <c r="B15" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>30</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="15.25" customHeight="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
+      <c r="B16" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>31</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="15.25" customHeight="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B17" t="s" s="3">
         <v>32</v>
+      </c>
+      <c r="C17" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>33</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="15.25" customHeight="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>33</v>
+      <c r="B18" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>34</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="15.25" customHeight="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>34</v>
+      <c r="B19" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>35</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="15.25" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" t="s" s="3">
         <v>36</v>
       </c>
+      <c r="C20" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>37</v>
+      </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.25" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" t="s" s="3">
         <v>38</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>40</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="15.25" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>40</v>
+      <c r="D22" t="s" s="3">
+        <v>42</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15.25" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>41</v>
+      <c r="D23" t="s" s="3">
+        <v>43</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="15.25" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
+      <c r="B24" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>45</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="15.25" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B25" t="s" s="3">
         <v>44</v>
       </c>
+      <c r="C25" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>46</v>
+      </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="15.25" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>46</v>
+      <c r="B26" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>48</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="15.25" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>48</v>
+      <c r="B27" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>50</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="15.25" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B28" t="s" s="3">
         <v>49</v>
       </c>
+      <c r="C28" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>51</v>
+      </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="15.25" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>50</v>
+      <c r="B29" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>52</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="15.25" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" t="s" s="3">
         <v>53</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>55</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="15.25" customHeight="1">
       <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>55</v>
+      <c r="D31" t="s" s="3">
+        <v>57</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="15.25" customHeight="1">
       <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>57</v>
+      <c r="B32" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>59</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="15.25" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>59</v>
+      <c r="B33" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s" s="3">
+        <v>61</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="15.25" customHeight="1">
       <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B34" t="s" s="3">
         <v>62</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s" s="3">
+        <v>64</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="15.25" customHeight="1">
       <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>64</v>
+      <c r="D35" t="s" s="3">
+        <v>66</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15.25" customHeight="1">
       <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>66</v>
+      <c r="B36" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s" s="3">
+        <v>68</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="15.25" customHeight="1">
       <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="B37" t="s" s="3">
         <v>69</v>
       </c>
+      <c r="C37" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s" s="3">
+        <v>71</v>
+      </c>
       <c r="E37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="15.25" customHeight="1">
       <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>71</v>
+      <c r="D38" t="s" s="3">
+        <v>73</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="15.25" customHeight="1">
       <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>73</v>
+      <c r="B39" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s" s="3">
+        <v>75</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="15.25" customHeight="1">
       <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>75</v>
+      <c r="B40" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s" s="3">
+        <v>77</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="15.25" customHeight="1">
       <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="B41" t="s" s="3">
         <v>78</v>
+      </c>
+      <c r="C41" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s" s="3">
+        <v>80</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="15.25" customHeight="1">
       <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>80</v>
+      <c r="D42" t="s" s="3">
+        <v>82</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="15.25" customHeight="1">
       <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>82</v>
+      <c r="B43" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s" s="3">
+        <v>84</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="15.25" customHeight="1">
       <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>84</v>
+      <c r="B44" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s" s="3">
+        <v>86</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="15.25" customHeight="1">
       <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>86</v>
+      <c r="B45" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s" s="3">
+        <v>88</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="15.25" customHeight="1">
       <c r="A46" s="2">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>88</v>
+      <c r="B46" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s" s="3">
+        <v>90</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="15.25" customHeight="1">
       <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="B47" t="s" s="3">
         <v>91</v>
+      </c>
+      <c r="C47" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s" s="3">
+        <v>93</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -2334,7 +2271,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -11,179 +11,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
-  <si>
-    <t>Ejes de Torsión</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+  <si>
+    <t>Eje de Torsión 4 Pernos 750 Kg.</t>
   </si>
   <si>
     <t>torsion</t>
   </si>
   <si>
-    <t>a. Eje de torsión|b. Abrazadera (Unión T)|c. Tubo para alargar eje de torsión</t>
-  </si>
-  <si>
-    <t>Eje de Torsión 4 Pernos 750 Kg.</t>
-  </si>
-  <si>
-    <t>Marca: AL-KO|Capacidad: 750 Kg. (1650 Lb.)|Fácil Instalación|&lt;br /&gt;|&lt;strong&gt;NO NECESITA&lt;/strong&gt;|• Paquetes de resorte|• Platineras|• Abrazaderas|• Orejas|• Uniones|• Monturitas|&lt;br /&gt;|&lt;strong&gt;BENEFICIOS:&lt;/strong&gt;|✓Amortiguación suave|✓Mayor estabilidad a mayor velocidad|✓No salta la carga|✓Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
+    <t>Marca: AL-KO|Capacidad: 750 Kg. (1650 Lb.)|Fácil Instalación|Se adhiere al chasis mediante 8 pernos.|Garantía: 2 años.|&lt;br /&gt;|Al usar este eje de torsión, &lt;strong&gt;NO NECESITA&lt;/strong&gt;|• Paquetes de resorte|• Platineras|• Abrazaderas|• Orejas|• Uniones|• Monturitas|&lt;br /&gt;|&lt;strong&gt;BENEFICIOS:&lt;/strong&gt;|✓Amortiguación suave|✓Mayor estabilidad a mayor velocidad|✓No salta la carga|✓Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
   </si>
   <si>
     <t>Eje de Torsión 5 Pernos 1000 Kg.</t>
   </si>
   <si>
-    <t>Capacidad: 1000 Kg. (2200 lb)|Fácil Instalación|NO NECESITA|Paquetes de resorte|Platineras|Abrazaderas|Orejas|Uniones|Monturitas|BENEFICIOS:|Amortiguación suave|Mayor estabilidad a mayor velocidad|No salta la carga|Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
+    <t>Marca: AL-KO|Capacidad: 1000 Kg. (2200 lb)|Fácil Instalación|Se adhiere al chasis mediante 10 pernos.|Garantía: 2 años.|&lt;br /&gt;|Al usar este eje de torsión, &lt;strong&gt;NO NECESITA&lt;/strong&gt;|• Paquetes de resorte|• Platineras|• Abrazaderas|• Orejas|• Uniones|• Monturitas|&lt;br /&gt;|&lt;strong&gt;BENEFICIOS:&lt;/strong&gt;|✓Amortiguación suave|✓Mayor estabilidad a mayor velocidad|✓No salta la carga|✓Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
   </si>
   <si>
     <t>Eje de Torsión 5 Pernos 1300 Kg.</t>
   </si>
   <si>
-    <t>Capacidad: 1300 Kg. (2860 lb)|Fácil Instalación|NO NECESITA|Paquetes de resorte|Platineras|Abrazaderas|Orejas|Uniones|Monturitas|BENEFICIOS:|Amortiguación suave|Mayor estabilidad a mayor velocidad|No salta la carga|Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
+    <t>Marca: AL-KO|Capacidad: 1300 Kg. (2860 lb)|Fácil Instalación|Se adhiere al chasis mediante 10 pernos.|Garantía: 2 años.|&lt;br /&gt;|Al usar este eje de torsión, &lt;strong&gt;NO NECESITA&lt;/strong&gt;|• Paquetes de resorte|• Platineras|• Abrazaderas|• Orejas|• Uniones|• Monturitas|&lt;br /&gt;|&lt;strong&gt;BENEFICIOS:&lt;/strong&gt;|✓ Amortiguación suave|✓ Mayor estabilidad a mayor velocidad|✓ No salta la carga|✓ Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
   </si>
   <si>
     <t>Abrazadera Union T</t>
   </si>
   <si>
-    <t>Sistema de Sujeción para armar Chasis T de 750 Kg.</t>
+    <t>Abrazaderas para instalación de Ejes de torsión en chasis de remolques.|Galvanizadas en caliente.|Incluye tornillería.|Marca: AL-KO</t>
   </si>
   <si>
     <t>Tubo de Eje de Torsión</t>
   </si>
   <si>
-    <t>Tubo original galvanizado|Capacidad 750 kg</t>
-  </si>
-  <si>
-    <t>Kit de Punta de Eje</t>
+    <t xml:space="preserve">Tramo de tubo exterior hexagonal para alargar ejes de torsión de 750 Kg.|Galvanizado en caliente.|Marca: AL-KO </t>
+  </si>
+  <si>
+    <t>Kit de Punta de Eje 4 Pernos 1000 Lb.</t>
   </si>
   <si>
     <t>punta</t>
   </si>
   <si>
-    <t>Kit de Punta de Eje 4 Pernos 1000 Lb.</t>
-  </si>
-  <si>
-    <t>Distancia entre pernos:|4" (10 cm. Aprox.)|"Incluye"|Rulimanes|Retenedor|Seguro|Tapa grasera|Tuercas de seguridad aceradas|Punta con tuerca y arandela.|Se necesitan 2 Kits para armar un eje de 2000 Lb.|Trabaja con aros de 12" - 13" - 14".</t>
+    <t>Distancia entre pernos: 4" (10 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 2000 Lb.|Trabaja con aros de 12”, 13”, 14".</t>
   </si>
   <si>
     <t>Kit de Punta de Eje 4 Pernos 1250 Lb.</t>
   </si>
   <si>
-    <t>Distancia entre pernos:|4" (10 cm. Aprox.)|"Incluye"|Rulimanes|Retenedor|Seguro|Tapa grasera|Tuercas de seguridad aceradas|Punta con tuerca y arandela.|Se necesitan 2 Kits para armar un eje de 2500 Lb.|Trabaja con aros de 12" - 13" - 14".</t>
+    <t xml:space="preserve">Distancia entre pernos: 4" (10 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 2500 Lb.|Trabaja con aros de 12”, 13”, 14". </t>
   </si>
   <si>
     <t>Kit de Punta de Eje 5 Pernos 1750 Lb.</t>
   </si>
   <si>
-    <t>Distancia entre pernos:|4.5" (11.40 cm. Aprox.)|"Incluye"|Rulimanes|Retenedor|Seguro|Tapa grasera|Tuercas de seguridad aceradas|Punta con tuerca y arandela.|Se necesitan 2 Kits para armar un eje de 3500 Lb.|Trabaja con aros de 14" - 15" - 16".</t>
+    <t xml:space="preserve">Distancia entre pernos: 4.5" (11.40 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 3500 Lb.|Trabaja con aros de 14”, 15”, 16". </t>
   </si>
   <si>
     <t>Kit de Punta de Eje 6 Pernos 3000 Lb.</t>
   </si>
   <si>
-    <t>Distancia entre pernos:|5.5" (14 cm. Aprox.)|"Incluye"|Rulimanes|Retenedor|Seguro|Tapa grasera|Tuercas de seguridad aceradas|Punta con tuerca y arandela.|Se necesitan 2 Kits para armar un eje de 6000 Lb.|Trabaja con aros de 14" - 15" - 16".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suspensión </t>
+    <t xml:space="preserve">Distancia entre pernos: 5.5" (14 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 6000 Lb.|Trabaja con aros de 14”, 15”, 16". </t>
+  </si>
+  <si>
+    <t>Paquetes de Resorte 1650 Lb.</t>
   </si>
   <si>
     <t>suspension</t>
   </si>
   <si>
-    <t>a. Paquetes de resorte|b. Kit de Orejas|c. Kit de Balanchines</t>
-  </si>
-  <si>
-    <t>Paquetes de Resorte</t>
-  </si>
-  <si>
-    <t>Paquete de Resorte 3 Hojas, de Un Solo Ojo|Capacidad: 1650 Lb.|Largo: 24 pulgadas.|Ancho: 1.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paquetes de Resorte </t>
-  </si>
-  <si>
-    <t>Paquete de Resorte 3 Hojas, de Un Doble Ojo|Capacidad: 1850 Lb.|Largo: 20 pulgadas.|Ancho: 1.75</t>
-  </si>
-  <si>
-    <t>Paquete de Resorte 5 Hojas, de Un Solo Ojo|Capacidad: 2300 Lb.|Largo: 29.5 pulgadas.|Ancho: 1.75</t>
-  </si>
-  <si>
-    <t>Paquete de Resorte 6 Hojas, de Un Doble Ojo|Capacidad: 3500 Lb.|Largo: 25 pulgadas.|Ancho: 1.75</t>
-  </si>
-  <si>
-    <t>Kit de Orejas</t>
-  </si>
-  <si>
-    <t>Conjunto de Pernos, Tuercas y Platineras|Para soldar al chasis e instalar los paquetes.</t>
-  </si>
-  <si>
-    <t>Para paquetes de UN SOLO OJO|Incluye:|2 Orejas 1 3/4 x 1 1/2|2 Uniones 3/4 x 2|2 Pernos 1/2 x 3 1/2 Galvanizados|Se Necesita 1 solo Kit para instalar 2 paquetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para paquetes de DOBLE OJO|Incluye:|2 Orejas 3/4 x 1 1/2|2 Orejas 1 1/4 x 1 1/4|2 Platinas 1/2 x 3 1/2|6 Pernos con Tuercas 1/2 x 3 1/2|Se necesita 1 solo Kit para instalar 2 paquetes </t>
+    <t>Capacidad: 1650 Lb.|Largo: 24” (60.96 cm.)|Ancho: 1 3⁄4” (4.45 cm.)|(La distancia se mide del centro del ojo hasta el centro del final de la hoja.)</t>
+  </si>
+  <si>
+    <t>Paquetes de Resorte 1850 Lb.</t>
+  </si>
+  <si>
+    <t>Capacidad: 1850 Lb.|Largo: 20” (50.80 cm.)|Ancho: 1 3⁄4” (4.45 cm.)|(La distancia se mide de centro a centro de cada ojo.)</t>
+  </si>
+  <si>
+    <t>Paquetes de Resorte 2300 Lb.</t>
+  </si>
+  <si>
+    <t>Capacidad: 2300 Lb.|Largo: 29.5” (74.93 cm.)|Ancho: 1 3⁄4” (4.45 cm.)|(La distancia se mide del centro del ojo hasta el centro del final de la hoja.)</t>
+  </si>
+  <si>
+    <t>Paquetes de Resorte 3000 Lb.</t>
+  </si>
+  <si>
+    <t>Capacidad: 3500 Lb.|Largo: 25” (63.50 cm.)|Ancho: 1 3⁄4” (4.45 cm.)|(La distancia se mide de centro a centro de cada ojo.)</t>
+  </si>
+  <si>
+    <t>Kit de Orejas para un Solo Ojo</t>
+  </si>
+  <si>
+    <t>Sirven para paquetes de un solo ojo (deslizantes).|&lt;br /&gt;|&lt;strong&gt;Comprende:&lt;/strong&gt;|• 2 Orejas delanteras 1 3⁄4” X 1 1⁄2”|• 2 Uniones 3⁄4” x 2”|• 2 Pernos 1⁄2” X 3 1⁄2”|• 2 Tuercas 1⁄2|&lt;br /&gt;|Se necesita 1 solo kit para instalar 2 paquetes.</t>
+  </si>
+  <si>
+    <t>Kit de Orejas para Doble Ojo</t>
+  </si>
+  <si>
+    <t>Sirven para paquetes de doble ojo.|&lt;br /&gt;|&lt;strong&gt;Comprende:&lt;/strong&gt;|• 2 Orejas delanteras 1 3⁄4” X 1 1⁄2”|• 2 Orejas posteriores 1 1⁄4” x 1 1⁄4”|• 4 Platineras 1 1⁄2” x 1⁄4”|• 6 Pernos 1⁄2” X 3 1⁄2”|• 6 Tuercas 1⁄2|&lt;br /&gt;|Se necesita 1 solo kit para instalar 2 paquetes.</t>
   </si>
   <si>
     <t>Kit de Balancines</t>
   </si>
   <si>
-    <t>Kit de Balancines para armar sistema de doble eje.|Incluye:|4 Orejas 1 3/4 x 1 1/2|8 Platinas 1 1/2 x 1 1/4|2 Orejas de Balance|2 Triangulos de balance|14 Pernos 1/2 x 3 1/2|14 Tuercas 1/2|No incluye paquetes de Resorte.</t>
-  </si>
-  <si>
-    <t>Patas de Soporte</t>
+    <t>Sistema para instalar paquetes de resorte en remolques de doble eje.|&lt;br /&gt;|&lt;strong&gt;Comprende:&lt;/strong&gt;|• 4 Orejas delanteras 1 3⁄4” X 1 1⁄2”|• 2 Orejas de balance 2 1⁄4”|• 2 Triángulos de balance 7 3⁄4”|• 8 Platineras 1 1⁄2” x 1⁄4”|• 14 Pernos 1/2” x 3 1/2”|• 14 Tuercas 1/2|Se necesita 1 solo kit para instalar 4 paquetes.|No incluye paquetes de Resorte.</t>
+  </si>
+  <si>
+    <t>Patas de Soporte con Rueda - 1000 Lb.</t>
   </si>
   <si>
     <t>patas</t>
   </si>
   <si>
-    <t>a. Patas de soporte con rueda|b. Patas de soporte estáticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patas de Soporte con Rueda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pata Soporte con Rueda Plástica|Capacidad: 1000 Lb.|Medidas:|23" (58.42 cm.) en estado normal|34" (86.36 cm.) extendida|Utilidades:|Facilita el engache en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 40 cm.|Sirve como apoyo cuando el remolque está estacionado.|Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda. </t>
-  </si>
-  <si>
-    <t>Rueda Compacta|Capacidad: 150 Kg. Para remolques de 750 Kg.|Medidas:|50 cm. en estado normal|80 cm. extendida|Utilidades:|Facilita el engache en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 30 cm.|Sirve como apoyo cuando el remolque está estacionado.|Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
-  </si>
-  <si>
-    <t>Patas Soporte con Llanta</t>
-  </si>
-  <si>
-    <t>Rueda Compacta|Capacidad: 200 Kg. Para remolques de 1000 Kg.|Medidas:|50 cm. en estado normal|85 cm. extendida|Utilidades:|Facilita el engache en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 35 cm.|Sirve como apoyo cuando el remolque está estacionado.|Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
-  </si>
-  <si>
-    <t>Capacidad 300 Kg. Para remolques de 1500 Kg.|Medidas:|(57 cm.) Estado Normal|(87 cm.) Extendida|Utilidades:|Sube y baja 30 cm. Aprox.|Sirve como apoyo cuando el remolque está estacionado</t>
-  </si>
-  <si>
-    <t>Patas Soporte con Rueda</t>
-  </si>
-  <si>
-    <t>Capacidad 500 Kg. Para remolques de 2500 Kg.|Medidas:|(48 cm.) Estado Normal|(78 cm.) Extendida|Utilidades:|Sube y baja 30 cm. Aprox.|Sirve como apoyo cuando el remolque está estacionado</t>
-  </si>
-  <si>
-    <t>Patas Soporte Estacionarias</t>
-  </si>
-  <si>
-    <t>Capacidad 5000 Lb.|Medidas:|24.5" (63.50 cm.) Estado Normal|40" (104.14 cm.) Extendida|Utilidades:|Sube y baja 40 cm. aprox.|Sirve como apoyo cuando el remolque está estacionado</t>
-  </si>
-  <si>
-    <t>Capacidad 1000 Kg.|Para remolques de 2500 Kg.|Medidas:|54 cm. Estado Normal|90 cm. Extendida|Utilidades|Sube y baja 35 cm. aprox.|Sirve como apoyo cuando el remolque está estacionado</t>
-  </si>
-  <si>
-    <t>Capacidad 2500 Lb.|Medidas:|23" (58.42 cm.) Estado Normal|34" (86.36 cm.) Extendida|Utilidades:|Sube y baja 40 cm. Aprox.|Sirve como apoyo cuando el remolque está estacionado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aros con Llantas </t>
+    <t>Con rueda plástica.|&lt;strong&gt;Medidas:&lt;strong&gt;|23” (58.42 cm.) en estado normal|34” (86.36 cm.) extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 40 cm.|• Sirve como apoyo cuando el remolque está estacionado.|• Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
+  </si>
+  <si>
+    <t>Patas de Soporte con Rueda - 750 Kg</t>
+  </si>
+  <si>
+    <t>Marca AL-KO.|Con rueda compacta.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 150 Kg. Para remolques 750 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|50 cm. en estado normal|80 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|•Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 30 cm.|•Sirve como apoyo cuando el remolque está estacionado.|•Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
+  </si>
+  <si>
+    <t>Patas Soporte con Llanta - 1000 Kg.</t>
+  </si>
+  <si>
+    <t>Marca AL-KO.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 200 Kg. Para remolques 1000 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|50 cm. en estado normal|85 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 35 cm.|• Sirve como apoyo cuando el remolque está estacionado.|• Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
+  </si>
+  <si>
+    <t>Patas Soporte con Rueda - 1500 Kg.</t>
+  </si>
+  <si>
+    <t>Marca AL-KO.|Con rueda compacta.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 300 Kg. Para remolques 1500 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|57 cm. en estado normal|87 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|•Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 30 cm.|•Sirve como apoyo cuando el remolque está estacionado.|•Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
+  </si>
+  <si>
+    <t>Patas Soporte con Rueda - 2500 Kg.</t>
+  </si>
+  <si>
+    <t>Marca AL-KO.|Con rueda compacta.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 500 Kg. Para remolques 2500 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|48 cm. en estado normal|78 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 30 cm.|• Sirve como apoyo cuando el remolque está estacionado.|• Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
+  </si>
+  <si>
+    <t>Patas Soporte Estacionarias - 1000 Kg.</t>
+  </si>
+  <si>
+    <t>Marca AL-KO.|Con base redonda.|&lt;strong&gt;Capacidad:&lt;/strong&gt; 1000 Kg. Para remolques 2000 Kg.|&lt;strong&gt;Medidas:&lt;strong&gt;|54 cm. en estado normal|90 cm. extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 36 cm.|• Sirve como apoyo cuando el remolque está estacionado.</t>
+  </si>
+  <si>
+    <t>Patas Soporte Estacionarias - 2500 Lb.</t>
+  </si>
+  <si>
+    <t>Con base cuadrada. Galvanizada.|Viene con pernos y platinas para instalar en el remolque.|&lt;strong&gt;Medidas:&lt;strong&gt;|24” (63.50 cm.) en estado normal|41” (104.14 cm.) extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Sube y baja 30 cm. Aprox.|•	Sirve como apoyo cuando el remolque está estacionado.</t>
+  </si>
+  <si>
+    <t>Patas Soporte Estacionarias - 5000 Lb.</t>
+  </si>
+  <si>
+    <t>Con base cuadrada. Galvanizada.|Viene con pernos y platinas para instalar en el remolque.|&lt;strong&gt;Medidas:&lt;strong&gt;|24.5” (62.23 cm.) en estado normal|40” (101.60 cm.) extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Sube y baja 40 cm. Aprox.|• Sirve como apoyo cuando el remolque está estacionado.</t>
+  </si>
+  <si>
+    <t>Aros con Llanta 8</t>
   </si>
   <si>
     <t>aros</t>
   </si>
   <si>
-    <t>a. Aros con llanta 8|b. Aros con llanta 12|c. Aros con llanta 14</t>
-  </si>
-  <si>
-    <t>Aros con Llanta 8</t>
-  </si>
-  <si>
     <t>4 Huecos|Medida llanta: 4.80 x 8.|Capacidad 585 Lb.|Aro Blanco</t>
   </si>
   <si>
@@ -199,85 +190,73 @@
     <t>5 Huecos|Medida llanta: ST205/75D14|Capacidad 1760 Lb.|Aro Blanco</t>
   </si>
   <si>
-    <t xml:space="preserve">Guardafangos </t>
+    <t>Guardafangos Sencillos</t>
   </si>
   <si>
     <t>guardafangos</t>
   </si>
   <si>
-    <t>a. Guardafangos sencillos ALKO|b. Guardafangos para doble eje ALKO</t>
-  </si>
-  <si>
-    <t>Guardafangos Sencillos</t>
-  </si>
-  <si>
-    <t>Plásticos Alemanes|ARO 13 - 14|Largo 73 cm.|Ancho 20 cm.|Profundidad: 36 cm.</t>
+    <t>Para un solo eje.|Marca: AL-KO.|Material: plástico|Trabajan con aro 13” y 14”. Largo 73 cm.|Ancho 20 cm.|Profundidad 36 cm.</t>
   </si>
   <si>
     <t>Guardafangos Dobles</t>
   </si>
   <si>
-    <t>Plásticos Alemanes|ARO 13 - 14 - 15|Largo 150 cm.|Ancho 22 cm.|Profundidad: 36 cm.</t>
-  </si>
-  <si>
-    <t>Sistema de Freno 7000 Lb.</t>
+    <t>Para doble eje.|Marca: AL-KO.|Material: plástico|Trabajan con aro 13” y 14”. Largo 146 cm.|Ancho 22 cm. Profundidad 36 cm.</t>
+  </si>
+  <si>
+    <t>Acople de freno</t>
   </si>
   <si>
     <t>frenos</t>
   </si>
   <si>
-    <t>El sistema de freno completo comprende:|Acople de freno|Frenos de disco|Puntas de eje|Mangueras.|Capacidad: 7000 lb. (3.1 toneladas)</t>
+    <t>Capacidad 7000 Lb. (3.1 Ton.)|Trabaja con bola 2”.|Solenoide incorporado al cilindro maestro, que facilita la revisión sin sacar la línea de frenado.|Con pin de seguridad para la bola, y cable de freno recubierto en PVC.</t>
   </si>
   <si>
     <t>Punta de Eje con Brida de Freno</t>
   </si>
   <si>
-    <t>1 3/8 x 1 1/16|Capacidad 3500 Lb.|Viene con tuerca y arandela|Cantidad requerida por eje: 2</t>
+    <t>1 3/8” x 1 1/16”|Capacidad 3500 Lb.|Con tuerca y arandela.|Cantidad requerida por eje: 2.</t>
   </si>
   <si>
     <t>Kit de Freno de Discos 10" para Remolque</t>
   </si>
   <si>
-    <t>Capacidad 7000 Lb. (3.1 toneladas)|Este Kit incluye:|2 Mordazas|2 Discos de freno 10 pulgadas|2 Soportes de morzada|Juego de rulimanes|Esas cantidades sirven para armar UN EJE.</t>
+    <t>Capacidad 7000 Lb. (3.1 Ton.)|&lt;br /&gt;|&lt;strong&gt;Este kit comprende:&lt;/strong&gt;|•2 Discos de freno 10” de 5 pernos|• 2 Mordazas|• 2 Soportes de mordaza|• Juego de rulimanes|&lt;br /&gt;|Estas cantidades sirven para un solo eje.</t>
   </si>
   <si>
     <t>Juego de Mangueras</t>
   </si>
   <si>
-    <t>Mangueras de freno termoplásticas con recubrimiento de peliuretano, anticorrosivas, para trabajos pesados ("heavy duty").|Incluye accesarios de conexión.|Medidas: 25' (7.62 m. Aprox.)/80" Ancho (2 m. Aprox.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accesarios </t>
+    <t>Mangueras de freno termoplásticas con recubrimiento de poliuretano, anticorrosivas, para trabajos pesados ("heavy duty").|Incluye accesarios de conexión.|Medidas: 25' (7.62 m. Aprox.)/80" Ancho (2 m. Aprox.)</t>
+  </si>
+  <si>
+    <t>Acoples</t>
   </si>
   <si>
     <t>accesorios</t>
   </si>
   <si>
-    <t>a. Acoples|b. Bolas|c. Alfombra sumergible|d. Engache y Tubo Recibidor.</t>
-  </si>
-  <si>
-    <t>Acoples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acople o Tortuga de 1 7/8"|Capacidad: 2000 - 3500 Lb.|Bola de 1 7/8"|Base 2" que se conecta al remolque.|Acople o Tortuga de 2" x 2"|Capacidad: 3500 Lb.|Bola de 2"|Base 2" que se conecta al remolque|Acople o Tortuga de 2" x 3"|Capacidad: 5000 Lb.|Bola 2"|Base 3" que se conecta al remolque </t>
+    <t>&lt;strong&gt;Diferentes medidas y capacidades:&lt;/strong&gt;|• 2000 Lb. Trabaja con bola 1 7/8”. Base que se conecta al remolque: 2”.|• 3500 Lb. Trabaja con bola 2”. Base que se conecta al remolque: 2”|• 5000 Lb. Trabaja con bola 2”. Base que se conecta al remolque: 3”</t>
   </si>
   <si>
     <t>Bolas de Acople</t>
   </si>
   <si>
-    <t>Bola de 1 7/8"|Capacidad: 2000 - 3500 Lb.|Bola de 2"|Capacidad: 3500 - 5000 Lb.|Bola de 2 5/16"|Capacidad: 1000 Lb.</t>
+    <t>&lt;strong&gt;Diferentes medidas y capacidades:&lt;/strong&gt;|• 1 7/8” – 2000 Lb.|• 2” - 3500 Lb.|• 2” - 5000 Lb.|• 2 5/16” – 40000 Lb.</t>
   </si>
   <si>
     <t>Alfombras Sumergibles</t>
   </si>
   <si>
-    <t>Para forrar las tablas de madera para deslizar las embarcaciones y facilitar su subida en el remolque.|No se deteriora con la salinidad del agua.|Se vende por metro.|Vienen en 2 medidas de ancho:|6 Pulgadas 30 cm. Aprox.|8 Pulgadas 45 cm. Aprox.</t>
+    <t>Para remolques de uso acuático. Se usa para forrar las tablas de madera por donde se deslizan las embarcaciones al subir al remolque.|No se deteriora con la salinidad.|Se venden por metro.|Diferentes medidas de ancho:|• 6” – 30 cm. aprox.|• 8” – 45 cm. aprox.</t>
   </si>
   <si>
     <t xml:space="preserve">Enganche y Tubo Recibidor </t>
   </si>
   <si>
-    <t>Enganche para Barra de Tubo|Para bola de 1 7/8, 2"|Capacidad: Hasta 2 toneladas se emperna al tubo recibidor.|Tubo Recibidor:|Cuadrado de 2"|Capacidad hasta 2 toneladas|Se suelda a la barra del tiro|Se venden por separado</t>
+    <t>Para la barra de tiro de su vehículo.|El Enganche trabaja con bolas 1 7/8” y 2”. Capacidad: 2 Ton. Se emperna al tubo recibidor.|El Tubo recibidor de 2”. Capacidad: 2 Ton. Se suelda en la barra de tiro.|Se venden por separado.</t>
   </si>
   <si>
     <t>Candado</t>
@@ -362,7 +341,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -377,6 +356,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1468,8 +1456,8 @@
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="255" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.25" customHeight="1">
@@ -1486,8 +1474,9 @@
         <v>2</v>
       </c>
       <c r="E1" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="15.25" customHeight="1">
       <c r="A2" s="2">
@@ -1499,12 +1488,13 @@
       <c r="C2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="15.25" customHeight="1">
       <c r="A3" s="2">
@@ -1516,12 +1506,13 @@
       <c r="C3" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="5">
         <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15.25" customHeight="1">
       <c r="A4" s="2">
@@ -1533,12 +1524,13 @@
       <c r="C4" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" t="s" s="5">
         <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="15.25" customHeight="1">
       <c r="A5" s="2">
@@ -1550,12 +1542,13 @@
       <c r="C5" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="5">
         <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" ht="15.25" customHeight="1">
       <c r="A6" s="2">
@@ -1565,709 +1558,609 @@
         <v>11</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="3">
         <v>12</v>
       </c>
+      <c r="D6" t="s" s="5">
+        <v>13</v>
+      </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" ht="15.25" customHeight="1">
       <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="5">
+        <v>15</v>
+      </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" ht="15.25" customHeight="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="5">
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" ht="15.25" customHeight="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="5">
+        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" ht="15.25" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>22</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" ht="15.25" customHeight="1">
       <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C11" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s" s="3">
-        <v>22</v>
+      <c r="D11" t="s" s="5">
+        <v>24</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" ht="15.25" customHeight="1">
       <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" ht="15.25" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="D13" t="s" s="5">
+        <v>28</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" ht="15.25" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s" s="3">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>30</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" ht="15.25" customHeight="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s" s="3">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="D15" t="s" s="5">
+        <v>32</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" ht="15.25" customHeight="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s" s="3">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>34</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" ht="15.25" customHeight="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" ht="15.25" customHeight="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s" s="3">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>39</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" ht="15.25" customHeight="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s" s="3">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D19" t="s" s="5">
+        <v>41</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" ht="15.25" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
       <c r="B20" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>37</v>
+      <c r="D20" t="s" s="5">
+        <v>43</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" ht="15.25" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" ht="15.25" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" ht="15.25" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D23" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" ht="15.25" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s" s="3">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="D24" t="s" s="5">
+        <v>51</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" ht="15.25" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
       <c r="B25" t="s" s="3">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" ht="15.25" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" ht="15.25" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
       <c r="B27" t="s" s="3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s" s="3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" ht="15.25" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s" s="3">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="D28" t="s" s="5">
+        <v>61</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" ht="15.25" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s" s="3">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="D29" t="s" s="5">
+        <v>63</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" ht="15.25" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" t="s" s="3">
-        <v>53</v>
+      <c r="B30" t="s" s="5">
+        <v>64</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="D30" t="s" s="3">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="D30" t="s" s="5">
+        <v>66</v>
       </c>
       <c r="E30" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" ht="15.25" customHeight="1">
       <c r="A31" s="2">
         <v>31</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" ht="15.25" customHeight="1">
       <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s" s="3">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="D32" t="s" s="5">
+        <v>70</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" ht="15.25" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s" s="3">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
       </c>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" ht="15.25" customHeight="1">
       <c r="A34" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="D34" t="s" s="5">
+        <v>75</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" ht="15.25" customHeight="1">
       <c r="A35" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s" s="3">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D35" t="s" s="3">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="D35" t="s" s="5">
+        <v>77</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
       </c>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" ht="15.25" customHeight="1">
       <c r="A36" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s" s="3">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="D36" t="s" s="5">
+        <v>79</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" ht="15.25" customHeight="1">
       <c r="A37" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s" s="3">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s" s="3">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="D37" t="s" s="5">
+        <v>81</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
       </c>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" ht="15.25" customHeight="1">
       <c r="A38" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s" s="3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" ht="15.25" customHeight="1">
       <c r="A39" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s" s="3">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s" s="3">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" customHeight="1">
-      <c r="A40" s="2">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="C40" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" customHeight="1">
-      <c r="A41" s="2">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="C41" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="D41" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="E41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" ht="15.25" customHeight="1">
-      <c r="A42" s="2">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="D42" t="s" s="3">
-        <v>82</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" customHeight="1">
-      <c r="A43" s="2">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="C43" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="D43" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" customHeight="1">
-      <c r="A44" s="2">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="C44" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="D44" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" customHeight="1">
-      <c r="A45" s="2">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s" s="3">
-        <v>87</v>
-      </c>
-      <c r="C45" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="D45" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" customHeight="1">
-      <c r="A46" s="2">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="C46" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="D46" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" customHeight="1">
-      <c r="A47" s="2">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s" s="3">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -11,14 +11,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+  <si>
+    <t>Características</t>
+  </si>
+  <si>
+    <t>torsion</t>
+  </si>
+  <si>
+    <t>Suspensión hexagonal de caucho con suspensión independiente que asegura una transportación cuidadosa y segura.|&lt;br /&gt;|Durante la suspensión no se aplastan las gomas, sino que tienen espacio para trabajar (flexión), lo que asegura una amortiguación propia, suave y más estable, en cada rueda, logrando que las irregularidades de la carretera solo afecten el lado en que se originan.</t>
+  </si>
   <si>
     <t>Eje de Torsión 4 Pernos 750 Kg.</t>
   </si>
   <si>
-    <t>torsion</t>
-  </si>
-  <si>
     <t>Marca: AL-KO|Capacidad: 750 Kg. (1650 Lb.)|Fácil Instalación|Se adhiere al chasis mediante 8 pernos.|Garantía: 2 años.|&lt;br /&gt;|Al usar este eje de torsión, &lt;strong&gt;NO NECESITA&lt;/strong&gt;|• Paquetes de resorte|• Platineras|• Abrazaderas|• Orejas|• Uniones|• Monturitas|&lt;br /&gt;|&lt;strong&gt;BENEFICIOS:&lt;/strong&gt;|✓Amortiguación suave|✓Mayor estabilidad a mayor velocidad|✓No salta la carga|✓Se elimina el tiempo de armado y suelda del eje en el sistema convencional</t>
   </si>
   <si>
@@ -46,12 +52,15 @@
     <t xml:space="preserve">Tramo de tubo exterior hexagonal para alargar ejes de torsión de 750 Kg.|Galvanizado en caliente.|Marca: AL-KO </t>
   </si>
   <si>
+    <t>punta</t>
+  </si>
+  <si>
+    <t>Determina la capacidad de carga de su remolque. Es importante considerar no solo el peso de su carga sino también el peso de su remolque al momento de elegirlo.|&lt;br /&gt;|&lt;strong&gt;Comprende:&lt;/strong&gt;|• Manzana|• Rulimanes|• Retenedor|• Tapa grasera|• Tuercas de seguridad aceradas|• Seguro|• Punta con tuerca y arandela|&lt;br /&gt;|Se necesitan 2 Kits de punta de eje para armar un eje.</t>
+  </si>
+  <si>
     <t>Kit de Punta de Eje 4 Pernos 1000 Lb.</t>
   </si>
   <si>
-    <t>punta</t>
-  </si>
-  <si>
     <t>Distancia entre pernos: 4" (10 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 2000 Lb.|Trabaja con aros de 12”, 13”, 14".</t>
   </si>
   <si>
@@ -73,12 +82,15 @@
     <t xml:space="preserve">Distancia entre pernos: 5.5" (14 cm. Aprox.)|Se necesitan 2 Kits para armar un eje de 6000 Lb.|Trabaja con aros de 14”, 15”, 16". </t>
   </si>
   <si>
+    <t>suspension</t>
+  </si>
+  <si>
+    <t>Sistemas de suspensión clásica utilizada en remolques.|Los Paquetes de resorte (muelles) sirven como amortiguador en el remolque.|Pueden ser de un solo ojo (deslizantes), o de doble ojo.|Su capacidad debe ir acorde a la capacidad de los kits de punta de eje de su remolque.</t>
+  </si>
+  <si>
     <t>Paquetes de Resorte 1650 Lb.</t>
   </si>
   <si>
-    <t>suspension</t>
-  </si>
-  <si>
     <t>Capacidad: 1650 Lb.|Largo: 24” (60.96 cm.)|Ancho: 1 3⁄4” (4.45 cm.)|(La distancia se mide del centro del ojo hasta el centro del final de la hoja.)</t>
   </si>
   <si>
@@ -118,12 +130,15 @@
     <t>Sistema para instalar paquetes de resorte en remolques de doble eje.|&lt;br /&gt;|&lt;strong&gt;Comprende:&lt;/strong&gt;|• 4 Orejas delanteras 1 3⁄4” X 1 1⁄2”|• 2 Orejas de balance 2 1⁄4”|• 2 Triángulos de balance 7 3⁄4”|• 8 Platineras 1 1⁄2” x 1⁄4”|• 14 Pernos 1/2” x 3 1/2”|• 14 Tuercas 1/2|Se necesita 1 solo kit para instalar 4 paquetes.|No incluye paquetes de Resorte.</t>
   </si>
   <si>
+    <t>patas</t>
+  </si>
+  <si>
+    <t>Sencillo pero necesario componente que consiste en un tubo rígido con una manivela que permite ajustar la altura del remolque.|Pueden ser con rueda, o estacionarias.|Cuando hay que desplazar el remolque se recomienda elevar la rueda todo lo posible.</t>
+  </si>
+  <si>
     <t>Patas de Soporte con Rueda - 1000 Lb.</t>
   </si>
   <si>
-    <t>patas</t>
-  </si>
-  <si>
     <t>Con rueda plástica.|&lt;strong&gt;Medidas:&lt;strong&gt;|23” (58.42 cm.) en estado normal|34” (86.36 cm.) extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Facilita el enganche en el sistema del carro, ya que permite subir y bajar el remolque en un margen de 40 cm.|• Sirve como apoyo cuando el remolque está estacionado.|• Permite arrastrar el remolque con menor esfuerzo, ya que se sostiene sobre la rueda.</t>
   </si>
   <si>
@@ -169,12 +184,15 @@
     <t>Con base cuadrada. Galvanizada.|Viene con pernos y platinas para instalar en el remolque.|&lt;strong&gt;Medidas:&lt;strong&gt;|24.5” (62.23 cm.) en estado normal|40” (101.60 cm.) extendida.|&lt;br /&gt;|&lt;strong&gt;Utilidades:&lt;strong&gt;|• Sube y baja 40 cm. Aprox.|• Sirve como apoyo cuando el remolque está estacionado.</t>
   </si>
   <si>
+    <t>aros</t>
+  </si>
+  <si>
+    <t>De diferentes medidas y capacidades para uso en remolques.</t>
+  </si>
+  <si>
     <t>Aros con Llanta 8</t>
   </si>
   <si>
-    <t>aros</t>
-  </si>
-  <si>
     <t>4 Huecos|Medida llanta: 4.80 x 8.|Capacidad 585 Lb.|Aro Blanco</t>
   </si>
   <si>
@@ -190,12 +208,15 @@
     <t>5 Huecos|Medida llanta: ST205/75D14|Capacidad 1760 Lb.|Aro Blanco</t>
   </si>
   <si>
+    <t>guardafangos</t>
+  </si>
+  <si>
+    <t>Marca AL-KO|Plásticos, resistentes y elegantes.|Para remolques de un eje, y de doble eje.</t>
+  </si>
+  <si>
     <t>Guardafangos Sencillos</t>
   </si>
   <si>
-    <t>guardafangos</t>
-  </si>
-  <si>
     <t>Para un solo eje.|Marca: AL-KO.|Material: plástico|Trabajan con aro 13” y 14”. Largo 73 cm.|Ancho 20 cm.|Profundidad 36 cm.</t>
   </si>
   <si>
@@ -205,12 +226,15 @@
     <t>Para doble eje.|Marca: AL-KO.|Material: plástico|Trabajan con aro 13” y 14”. Largo 146 cm.|Ancho 22 cm. Profundidad 36 cm.</t>
   </si>
   <si>
+    <t>frenos</t>
+  </si>
+  <si>
+    <t>El Sistema de freno hidráulico inercial en un remolque es conveniente por su simplicidad, confiabilidad, facilidad de mantenimiento y alta eficacia.|&lt;br /&gt;|&lt;strong&gt;Un Sistema de freno clásico comprende:&lt;/strong&gt;|• Acople de freno|• Kit de Frenos de disco|• Puntas de eje con bridas|• Mangueras</t>
+  </si>
+  <si>
     <t>Acople de freno</t>
   </si>
   <si>
-    <t>frenos</t>
-  </si>
-  <si>
     <t>Capacidad 7000 Lb. (3.1 Ton.)|Trabaja con bola 2”.|Solenoide incorporado al cilindro maestro, que facilita la revisión sin sacar la línea de frenado.|Con pin de seguridad para la bola, y cable de freno recubierto en PVC.</t>
   </si>
   <si>
@@ -232,12 +256,15 @@
     <t>Mangueras de freno termoplásticas con recubrimiento de poliuretano, anticorrosivas, para trabajos pesados ("heavy duty").|Incluye accesarios de conexión.|Medidas: 25' (7.62 m. Aprox.)/80" Ancho (2 m. Aprox.)</t>
   </si>
   <si>
+    <t>accesorios</t>
+  </si>
+  <si>
+    <t>• Acoples|• Bolas|• Tubo recibidor y enganche|• Alfombras|• Candados</t>
+  </si>
+  <si>
     <t>Acoples</t>
   </si>
   <si>
-    <t>accesorios</t>
-  </si>
-  <si>
     <t>&lt;strong&gt;Diferentes medidas y capacidades:&lt;/strong&gt;|• 2000 Lb. Trabaja con bola 1 7/8”. Base que se conecta al remolque: 2”.|• 3500 Lb. Trabaja con bola 2”. Base que se conecta al remolque: 2”|• 5000 Lb. Trabaja con bola 2”. Base que se conecta al remolque: 3”</t>
   </si>
   <si>
@@ -265,10 +292,13 @@
     <t>Candado para tubo recibidor</t>
   </si>
   <si>
+    <t>chasis</t>
+  </si>
+  <si>
+    <t>Los mejores Chasis, nuevos modelos próximamente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chasis </t>
-  </si>
-  <si>
-    <t>chasis</t>
   </si>
   <si>
     <t>a. Chasis</t>
@@ -354,11 +384,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
@@ -1446,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1470,13 +1500,11 @@
       <c r="C1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" ht="15.25" customHeight="1">
       <c r="A2" s="2">
@@ -1488,13 +1516,13 @@
       <c r="C2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" ht="15.25" customHeight="1">
       <c r="A3" s="2">
@@ -1506,13 +1534,13 @@
       <c r="C3" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" t="s" s="4">
         <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" ht="15.25" customHeight="1">
       <c r="A4" s="2">
@@ -1524,13 +1552,13 @@
       <c r="C4" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" t="s" s="4">
         <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" ht="15.25" customHeight="1">
       <c r="A5" s="2">
@@ -1542,13 +1570,13 @@
       <c r="C5" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" t="s" s="4">
         <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" ht="15.25" customHeight="1">
       <c r="A6" s="2">
@@ -1558,609 +1586,755 @@
         <v>11</v>
       </c>
       <c r="C6" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="D6" t="s" s="5">
-        <v>13</v>
-      </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" ht="15.25" customHeight="1">
       <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="B7" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" ht="15.25" customHeight="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
       <c r="B8" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C8" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s" s="5">
-        <v>17</v>
-      </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" ht="15.25" customHeight="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
       <c r="B9" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="5">
-        <v>19</v>
-      </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" ht="15.25" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
       <c r="B10" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>22</v>
-      </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" ht="15.25" customHeight="1">
       <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s" s="5">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="4">
+        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" ht="15.25" customHeight="1">
       <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D12" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" ht="15.25" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s" s="5">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D13" t="s" s="4">
+        <v>26</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" ht="15.25" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="4">
+        <v>28</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" ht="15.25" customHeight="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s" s="5">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>30</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" ht="15.25" customHeight="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s" s="5">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="D16" t="s" s="4">
+        <v>32</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" ht="15.25" customHeight="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="3">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="D17" t="s" s="4">
+        <v>34</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" ht="15.25" customHeight="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="D18" t="s" s="5">
-        <v>39</v>
-      </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" ht="15.25" customHeight="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s" s="5">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="D19" t="s" s="4">
+        <v>38</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" ht="15.25" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D20" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" ht="15.25" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s" s="3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" ht="15.25" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s" s="3">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="4">
+        <v>44</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" ht="15.25" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D23" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" ht="15.25" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s" s="5">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="4">
+        <v>48</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" ht="15.25" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
       <c r="B25" t="s" s="3">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s" s="3">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" ht="15.25" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s" s="3">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" ht="15.25" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
       <c r="B27" t="s" s="3">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D27" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" ht="15.25" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s" s="5">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="D28" t="s" s="4">
+        <v>56</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" ht="15.25" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" ht="15.25" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" t="s" s="5">
-        <v>64</v>
+      <c r="B30" t="s" s="3">
+        <v>59</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s" s="5">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>60</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" ht="15.25" customHeight="1">
       <c r="A31" s="2">
         <v>31</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s" s="3">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" ht="15.25" customHeight="1">
       <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s" s="5">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>64</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" ht="15.25" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="D33" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4"/>
+      <c r="D33" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" ht="15.25" customHeight="1">
       <c r="A34" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s" s="5">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="D34" t="s" s="4">
+        <v>68</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" ht="15.25" customHeight="1">
       <c r="A35" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s" s="3">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s" s="5">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="D35" t="s" s="4">
+        <v>70</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" ht="15.25" customHeight="1">
       <c r="A36" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="D36" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" ht="15.25" customHeight="1">
       <c r="A37" s="2">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s" s="3">
-        <v>80</v>
+        <v>37</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>73</v>
       </c>
       <c r="C37" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>74</v>
       </c>
-      <c r="D37" t="s" s="5">
-        <v>81</v>
-      </c>
       <c r="E37" s="2">
         <v>0</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" ht="15.25" customHeight="1">
       <c r="A38" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s" s="3">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" ht="15.25" customHeight="1">
       <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" ht="15.25" customHeight="1">
+      <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B40" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" ht="15.25" customHeight="1">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" ht="15.25" customHeight="1">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>84</v>
       </c>
-      <c r="C39" t="s" s="3">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" ht="15.25" customHeight="1">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s" s="3">
         <v>85</v>
       </c>
-      <c r="D39" t="s" s="3">
+      <c r="C43" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" ht="15.25" customHeight="1">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" ht="15.25" customHeight="1">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" ht="15.25" customHeight="1">
+      <c r="A46" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" ht="15.25" customHeight="1">
+      <c r="A47" s="2">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" ht="15.25" customHeight="1">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>Características</t>
   </si>
@@ -256,6 +256,9 @@
     <t>Mangueras de freno termoplásticas con recubrimiento de poliuretano, anticorrosivas, para trabajos pesados ("heavy duty").|Incluye accesarios de conexión.|Medidas: 25' (7.62 m. Aprox.)/80" Ancho (2 m. Aprox.)</t>
   </si>
   <si>
+    <t>Componentes</t>
+  </si>
+  <si>
     <t>accesorios</t>
   </si>
   <si>
@@ -302,6 +305,55 @@
   </si>
   <si>
     <t>a. Chasis</t>
+  </si>
+  <si>
+    <t>Pata de apoyo 150 Kg.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Marca AL-KO&lt;/strong&gt;|&lt;strong&gt;Capacidad:&lt;/strong&gt; 150 Kg.|&lt;strong&gt;Medida:&lt;/strong&gt; 60 cm.|•Para remolque de 750 kg|•Sencilla, práctica y resistente.|•Zincada para garantizar la anticorrosión.</t>
+  </si>
+  <si>
+    <t>Pata de apoyo con manivela 150 Kg.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Marca AL-KO&lt;/strong&gt;|&lt;strong&gt;Capacidad:&lt;/strong&gt; 150 Kg.|Para remolque de 750 kg|&lt;strong&gt;Medida:&lt;/strong&gt;|•60 cm. en estado normal|•82 cm. extendida.|•Sencilla, práctica y resistente.|•Zincada para garantizar la anticorrosión.</t>
+  </si>
+  <si>
+    <t>Gancho tipo militar.</t>
+  </si>
+  <si>
+    <t>Utilizado para remolcar carga pesada.|Fabricado en acero forjado.|De alta resistencia.|&lt;strong&gt;Capacidad:&lt;/strong&gt;|• 5 Toneladas|• 10 Toneladas|Incluye kit de pernos para instalación.</t>
+  </si>
+  <si>
+    <t>Sistemas de luces.</t>
+  </si>
+  <si>
+    <t>Prácticos juegos de luces, listos para instalar.|&lt;strong&gt;Diferentes tipos:&lt;/strong&gt;|&lt;br /&gt;|• Luces de stop y laterales.|• Luces LED de stop y laterales, sumergibles, especiales para remolques de embarcaciones marítimas.|&lt;br /&gt;|&lt;strong&gt;Cada juego incluye:&lt;/strong&gt; cables (8 m. aprox.) y 2 sockets de 4 vías – hembra y macho.</t>
+  </si>
+  <si>
+    <t>Conectores eléctricos: 4 Polos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para conectar las luces del remolque.|Diferentes tipos: plásticos, metálicos|De 4 polos.|•Plásticos </t>
+  </si>
+  <si>
+    <t>Conectores eléctricos: 7 Polos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para conectar las luces del remolque.|Diferentes tipos: plásticos, metálicos|De 7 polos.|•Metálicos </t>
+  </si>
+  <si>
+    <t>Adaptador de conector de luces (7 a 4 polos)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+      </rPr>
+      <t>Plástico, resistente a la intemperie USA</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -311,7 +363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -326,6 +378,11 @@
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="3">
@@ -371,7 +428,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -395,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="bottom" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2201,13 +2261,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s" s="3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2217,13 +2277,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -2235,13 +2295,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -2253,13 +2313,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -2271,13 +2331,13 @@
         <v>45</v>
       </c>
       <c r="B45" t="s" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -2289,13 +2349,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -2310,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2323,18 +2383,138 @@
         <v>48</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="5"/>
+    </row>
+    <row r="49" ht="15.25" customHeight="1">
+      <c r="A49" s="2">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>99</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" ht="15.25" customHeight="1">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s" s="8">
+        <v>101</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" ht="15.25" customHeight="1">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s" s="8">
+        <v>103</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" ht="15.25" customHeight="1">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s" s="8">
+        <v>105</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" ht="15.25" customHeight="1">
+      <c r="A53" s="2">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s" s="8">
+        <v>107</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" ht="15.25" customHeight="1">
+      <c r="A54" s="2">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s" s="3">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s" s="8">
+        <v>109</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" ht="15.25" customHeight="1">
+      <c r="A55" s="2">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" ht="15.25" customHeight="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/php/listado.xlsx
+++ b/assets/php/listado.xlsx
@@ -229,7 +229,7 @@
     <t>frenos</t>
   </si>
   <si>
-    <t>El Sistema de freno hidráulico inercial en un remolque es conveniente por su simplicidad, confiabilidad, facilidad de mantenimiento y alta eficacia.|&lt;br /&gt;|&lt;strong&gt;Un Sistema de freno clásico comprende:&lt;/strong&gt;|• Acople de freno|• Kit de Frenos de disco|• Puntas de eje con bridas|• Mangueras</t>
+    <t>El Sistema de freno hidráulico en un remolque es conveniente por su simplicidad, confiabilidad, facilidad de mantenimiento y alta eficacia.|&lt;br /&gt;|&lt;strong&gt;Un Sistema de freno clásico comprende:&lt;/strong&gt;|• Acople de freno|• Kit de Frenos de disco|• Puntas de eje con bridas|• Mangueras</t>
   </si>
   <si>
     <t>Acople de freno</t>
